--- a/biology/Botanique/Phyllanthus_(plante)/Phyllanthus_(plante).xlsx
+++ b/biology/Botanique/Phyllanthus_(plante)/Phyllanthus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus est un genre de plantes à fleurs de la famille des Phyllanthaceae.
-Des vertus médicinales (antivirales, par exemple contre l'hépatite B chronique[2]) sont attribuées à certaines des espèces du genre.
+Des vertus médicinales (antivirales, par exemple contre l'hépatite B chronique) sont attribuées à certaines des espèces du genre.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Liste des espèces, sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (30 août 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (30 août 2015) :
 Phyllanthus atripennis (Swainson, 1837)
-Selon GRIN            (30 août 2015)[4] :
+Selon GRIN            (30 août 2015) :
 Phyllanthus abnormis Baill.
 Phyllanthus acidus (L.) Skeels
 Phyllanthus acuminatus Vahl
@@ -549,7 +563,7 @@
 Phyllanthus urinaria L.
 Phyllanthus virgatus G. Forst.
 Phyllanthus warnockii G. L. Webster
-Selon ITIS      (30 août 2015)[5] :
+Selon ITIS      (30 août 2015) :
 Phyllanthus abnormis Baill.
 Phyllanthus acidus (L.) Skeels
 Phyllanthus acuminatus Vahl
@@ -579,9 +593,9 @@
 Phyllanthus tenellus Roxb.
 Phyllanthus urinaria L.
 Phyllanthus warnockii G.L. Webster
-Selon World Checklist of Selected Plant Families (WCSP)  (30 août 2015)[6] :
-Selon The Plant List            (30 août 2015)[7] :
-Selon Tropicos                                           (30 août 2015)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon World Checklist of Selected Plant Families (WCSP)  (30 août 2015) :
+Selon The Plant List            (30 août 2015) :
+Selon Tropicos                                           (30 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 </t>
         </is>
       </c>
